--- a/data/output/FV2504_FV2410/ORDERS/17113.xlsx
+++ b/data/output/FV2504_FV2410/ORDERS/17113.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1959" uniqueCount="232">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1980" uniqueCount="232">
+  <si>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2504</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2504</t>
+  </si>
+  <si>
+    <t>Segment_FV2504</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2504</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2504</t>
+  </si>
+  <si>
+    <t>Code_FV2504</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2504</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2504</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -824,6 +824,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U89" totalsRowShown="0">
+  <autoFilter ref="A1:U89"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2410"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="3" name="Segment_FV2410"/>
+    <tableColumn id="4" name="Datenelement_FV2410"/>
+    <tableColumn id="5" name="Segment ID_FV2410"/>
+    <tableColumn id="6" name="Code_FV2410"/>
+    <tableColumn id="7" name="Qualifier_FV2410"/>
+    <tableColumn id="8" name="Beschreibung_FV2410"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="10" name="Bedingung_FV2410"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2504"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2504"/>
+    <tableColumn id="14" name="Segment_FV2504"/>
+    <tableColumn id="15" name="Datenelement_FV2504"/>
+    <tableColumn id="16" name="Segment ID_FV2504"/>
+    <tableColumn id="17" name="Code_FV2504"/>
+    <tableColumn id="18" name="Qualifier_FV2504"/>
+    <tableColumn id="19" name="Beschreibung_FV2504"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2504"/>
+    <tableColumn id="21" name="Bedingung_FV2504"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1113,7 +1143,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -5421,5 +5454,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2504_FV2410/ORDERS/17113.xlsx
+++ b/data/output/FV2504_FV2410/ORDERS/17113.xlsx
@@ -1542,7 +1542,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -1906,7 +1906,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -2052,7 +2052,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -2256,7 +2256,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2"/>
@@ -2458,7 +2458,7 @@
         <v>205</v>
       </c>
       <c r="L20" s="4"/>
-      <c r="M20" s="2" t="s">
+      <c r="M20" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N20" s="2" t="s">
@@ -2666,7 +2666,7 @@
       </c>
       <c r="K24" s="2"/>
       <c r="L24" s="4"/>
-      <c r="M24" s="2" t="s">
+      <c r="M24" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N24" s="2" t="s">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="K28" s="2"/>
       <c r="L28" s="4"/>
-      <c r="M28" s="2" t="s">
+      <c r="M28" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N28" s="2" t="s">
@@ -3238,7 +3238,7 @@
       </c>
       <c r="K35" s="2"/>
       <c r="L35" s="4"/>
-      <c r="M35" s="2" t="s">
+      <c r="M35" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N35" s="2" t="s">
@@ -3412,52 +3412,52 @@
       <c r="V38" s="5"/>
     </row>
     <row r="39" spans="1:22">
-      <c r="A39" s="5" t="s">
+      <c r="A39" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="C39" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D39" s="5" t="s">
+      <c r="D39" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E39" s="5"/>
+      <c r="E39" s="2"/>
       <c r="F39" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="5" t="s">
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="K39" s="5"/>
+      <c r="K39" s="2"/>
       <c r="L39" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="M39" s="5" t="s">
+      <c r="M39" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="N39" s="5" t="s">
+      <c r="N39" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="O39" s="5" t="s">
+      <c r="O39" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="P39" s="5"/>
+      <c r="P39" s="2"/>
       <c r="Q39" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="R39" s="5"/>
-      <c r="S39" s="5"/>
-      <c r="T39" s="5"/>
-      <c r="U39" s="5" t="s">
+      <c r="R39" s="2"/>
+      <c r="S39" s="2"/>
+      <c r="T39" s="2"/>
+      <c r="U39" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="V39" s="5"/>
+      <c r="V39" s="2"/>
     </row>
     <row r="40" spans="1:22">
       <c r="A40" s="5" t="s">
@@ -3814,7 +3814,7 @@
       </c>
       <c r="K46" s="2"/>
       <c r="L46" s="4"/>
-      <c r="M46" s="2" t="s">
+      <c r="M46" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N46" s="2" t="s">
@@ -4176,7 +4176,7 @@
       </c>
       <c r="K53" s="2"/>
       <c r="L53" s="4"/>
-      <c r="M53" s="2" t="s">
+      <c r="M53" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N53" s="2" t="s">
@@ -4458,22 +4458,22 @@
       </c>
     </row>
     <row r="59" spans="1:22">
-      <c r="A59" s="5" t="s">
+      <c r="A59" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="B59" s="5" t="s">
+      <c r="B59" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C59" s="5" t="s">
+      <c r="C59" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D59" s="5"/>
-      <c r="E59" s="5"/>
-      <c r="F59" s="5"/>
-      <c r="G59" s="5"/>
-      <c r="H59" s="5"/>
-      <c r="I59" s="5"/>
-      <c r="J59" s="5" t="s">
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
+      <c r="J59" s="2" t="s">
         <v>193</v>
       </c>
       <c r="K59" s="6" t="s">
@@ -4482,19 +4482,19 @@
       <c r="L59" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="M59" s="5" t="s">
+      <c r="M59" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="N59" s="5" t="s">
+      <c r="N59" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="O59" s="5"/>
-      <c r="P59" s="5"/>
-      <c r="Q59" s="5"/>
-      <c r="R59" s="5"/>
-      <c r="S59" s="5"/>
-      <c r="T59" s="5"/>
-      <c r="U59" s="5" t="s">
+      <c r="O59" s="2"/>
+      <c r="P59" s="2"/>
+      <c r="Q59" s="2"/>
+      <c r="R59" s="2"/>
+      <c r="S59" s="2"/>
+      <c r="T59" s="2"/>
+      <c r="U59" s="2" t="s">
         <v>193</v>
       </c>
       <c r="V59" s="6" t="s">
@@ -4686,7 +4686,7 @@
       </c>
       <c r="K63" s="2"/>
       <c r="L63" s="4"/>
-      <c r="M63" s="2" t="s">
+      <c r="M63" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N63" s="2" t="s">
@@ -4812,52 +4812,52 @@
       </c>
     </row>
     <row r="66" spans="1:22">
-      <c r="A66" s="5" t="s">
+      <c r="A66" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="B66" s="5" t="s">
+      <c r="B66" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C66" s="5" t="s">
+      <c r="C66" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D66" s="5" t="s">
+      <c r="D66" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E66" s="5"/>
+      <c r="E66" s="2"/>
       <c r="F66" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="G66" s="5"/>
-      <c r="H66" s="5"/>
-      <c r="I66" s="5"/>
-      <c r="J66" s="5" t="s">
+      <c r="G66" s="2"/>
+      <c r="H66" s="2"/>
+      <c r="I66" s="2"/>
+      <c r="J66" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="K66" s="5"/>
+      <c r="K66" s="2"/>
       <c r="L66" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="M66" s="5" t="s">
+      <c r="M66" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="N66" s="5" t="s">
+      <c r="N66" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="O66" s="5" t="s">
+      <c r="O66" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="P66" s="5"/>
+      <c r="P66" s="2"/>
       <c r="Q66" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="R66" s="5"/>
-      <c r="S66" s="5"/>
-      <c r="T66" s="5"/>
-      <c r="U66" s="5" t="s">
+      <c r="R66" s="2"/>
+      <c r="S66" s="2"/>
+      <c r="T66" s="2"/>
+      <c r="U66" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="V66" s="5"/>
+      <c r="V66" s="2"/>
     </row>
     <row r="67" spans="1:22">
       <c r="A67" s="5" t="s">
@@ -5028,54 +5028,54 @@
       <c r="V69" s="5"/>
     </row>
     <row r="70" spans="1:22">
-      <c r="A70" s="5" t="s">
+      <c r="A70" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="B70" s="5" t="s">
+      <c r="B70" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C70" s="5" t="s">
+      <c r="C70" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D70" s="5" t="s">
+      <c r="D70" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E70" s="5"/>
+      <c r="E70" s="2"/>
       <c r="F70" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="G70" s="5"/>
-      <c r="H70" s="5"/>
-      <c r="I70" s="5"/>
-      <c r="J70" s="5" t="s">
+      <c r="G70" s="2"/>
+      <c r="H70" s="2"/>
+      <c r="I70" s="2"/>
+      <c r="J70" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="K70" s="5" t="s">
+      <c r="K70" s="2" t="s">
         <v>211</v>
       </c>
       <c r="L70" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="M70" s="5" t="s">
+      <c r="M70" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="N70" s="5" t="s">
+      <c r="N70" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="O70" s="5" t="s">
+      <c r="O70" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="P70" s="5"/>
+      <c r="P70" s="2"/>
       <c r="Q70" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="R70" s="5"/>
-      <c r="S70" s="5"/>
-      <c r="T70" s="5"/>
-      <c r="U70" s="5" t="s">
+      <c r="R70" s="2"/>
+      <c r="S70" s="2"/>
+      <c r="T70" s="2"/>
+      <c r="U70" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="V70" s="5" t="s">
+      <c r="V70" s="2" t="s">
         <v>211</v>
       </c>
     </row>
@@ -5260,54 +5260,54 @@
       <c r="V73" s="5"/>
     </row>
     <row r="74" spans="1:22">
-      <c r="A74" s="5" t="s">
+      <c r="A74" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="B74" s="5" t="s">
+      <c r="B74" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C74" s="5" t="s">
+      <c r="C74" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D74" s="5" t="s">
+      <c r="D74" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E74" s="5"/>
+      <c r="E74" s="2"/>
       <c r="F74" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="G74" s="5"/>
-      <c r="H74" s="5"/>
-      <c r="I74" s="5"/>
-      <c r="J74" s="5" t="s">
+      <c r="G74" s="2"/>
+      <c r="H74" s="2"/>
+      <c r="I74" s="2"/>
+      <c r="J74" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="K74" s="5" t="s">
+      <c r="K74" s="2" t="s">
         <v>213</v>
       </c>
       <c r="L74" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="M74" s="5" t="s">
+      <c r="M74" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="N74" s="5" t="s">
+      <c r="N74" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="O74" s="5" t="s">
+      <c r="O74" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="P74" s="5"/>
+      <c r="P74" s="2"/>
       <c r="Q74" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="R74" s="5"/>
-      <c r="S74" s="5"/>
-      <c r="T74" s="5"/>
-      <c r="U74" s="5" t="s">
+      <c r="R74" s="2"/>
+      <c r="S74" s="2"/>
+      <c r="T74" s="2"/>
+      <c r="U74" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="V74" s="5" t="s">
+      <c r="V74" s="2" t="s">
         <v>213</v>
       </c>
     </row>
@@ -5492,54 +5492,54 @@
       <c r="V77" s="5"/>
     </row>
     <row r="78" spans="1:22">
-      <c r="A78" s="5" t="s">
+      <c r="A78" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="B78" s="5" t="s">
+      <c r="B78" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C78" s="5" t="s">
+      <c r="C78" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D78" s="5" t="s">
+      <c r="D78" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E78" s="5"/>
+      <c r="E78" s="2"/>
       <c r="F78" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="G78" s="5"/>
-      <c r="H78" s="5"/>
-      <c r="I78" s="5"/>
-      <c r="J78" s="5" t="s">
+      <c r="G78" s="2"/>
+      <c r="H78" s="2"/>
+      <c r="I78" s="2"/>
+      <c r="J78" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="K78" s="5" t="s">
+      <c r="K78" s="2" t="s">
         <v>214</v>
       </c>
       <c r="L78" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="M78" s="5" t="s">
+      <c r="M78" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="N78" s="5" t="s">
+      <c r="N78" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="O78" s="5" t="s">
+      <c r="O78" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="P78" s="5"/>
+      <c r="P78" s="2"/>
       <c r="Q78" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="R78" s="5"/>
-      <c r="S78" s="5"/>
-      <c r="T78" s="5"/>
-      <c r="U78" s="5" t="s">
+      <c r="R78" s="2"/>
+      <c r="S78" s="2"/>
+      <c r="T78" s="2"/>
+      <c r="U78" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="V78" s="5" t="s">
+      <c r="V78" s="2" t="s">
         <v>214</v>
       </c>
     </row>
@@ -5724,52 +5724,52 @@
       <c r="V81" s="5"/>
     </row>
     <row r="82" spans="1:22">
-      <c r="A82" s="5" t="s">
+      <c r="A82" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="B82" s="5" t="s">
+      <c r="B82" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C82" s="5" t="s">
+      <c r="C82" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D82" s="5" t="s">
+      <c r="D82" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E82" s="5"/>
+      <c r="E82" s="2"/>
       <c r="F82" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="G82" s="5"/>
-      <c r="H82" s="5"/>
-      <c r="I82" s="5"/>
-      <c r="J82" s="5" t="s">
+      <c r="G82" s="2"/>
+      <c r="H82" s="2"/>
+      <c r="I82" s="2"/>
+      <c r="J82" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="K82" s="5"/>
+      <c r="K82" s="2"/>
       <c r="L82" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="M82" s="5" t="s">
+      <c r="M82" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="N82" s="5" t="s">
+      <c r="N82" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="O82" s="5" t="s">
+      <c r="O82" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="P82" s="5"/>
+      <c r="P82" s="2"/>
       <c r="Q82" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="R82" s="5"/>
-      <c r="S82" s="5"/>
-      <c r="T82" s="5"/>
-      <c r="U82" s="5" t="s">
+      <c r="R82" s="2"/>
+      <c r="S82" s="2"/>
+      <c r="T82" s="2"/>
+      <c r="U82" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="V82" s="5"/>
+      <c r="V82" s="2"/>
     </row>
     <row r="83" spans="1:22">
       <c r="A83" s="5" t="s">
@@ -5888,48 +5888,48 @@
       <c r="V84" s="5"/>
     </row>
     <row r="85" spans="1:22">
-      <c r="A85" s="5" t="s">
+      <c r="A85" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="B85" s="5" t="s">
+      <c r="B85" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C85" s="5"/>
-      <c r="D85" s="5" t="s">
+      <c r="C85" s="2"/>
+      <c r="D85" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E85" s="5"/>
+      <c r="E85" s="2"/>
       <c r="F85" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="G85" s="5"/>
-      <c r="H85" s="5"/>
-      <c r="I85" s="5"/>
-      <c r="J85" s="5" t="s">
+      <c r="G85" s="2"/>
+      <c r="H85" s="2"/>
+      <c r="I85" s="2"/>
+      <c r="J85" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="K85" s="5"/>
+      <c r="K85" s="2"/>
       <c r="L85" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="M85" s="5" t="s">
+      <c r="M85" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="N85" s="5"/>
-      <c r="O85" s="5" t="s">
+      <c r="N85" s="2"/>
+      <c r="O85" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="P85" s="5"/>
+      <c r="P85" s="2"/>
       <c r="Q85" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="R85" s="5"/>
-      <c r="S85" s="5"/>
-      <c r="T85" s="5"/>
-      <c r="U85" s="5" t="s">
+      <c r="R85" s="2"/>
+      <c r="S85" s="2"/>
+      <c r="T85" s="2"/>
+      <c r="U85" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="V85" s="5"/>
+      <c r="V85" s="2"/>
     </row>
     <row r="86" spans="1:22">
       <c r="A86" s="5" t="s">
@@ -5984,48 +5984,48 @@
       <c r="V86" s="5"/>
     </row>
     <row r="87" spans="1:22">
-      <c r="A87" s="5" t="s">
+      <c r="A87" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="B87" s="5" t="s">
+      <c r="B87" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C87" s="5"/>
-      <c r="D87" s="5" t="s">
+      <c r="C87" s="2"/>
+      <c r="D87" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E87" s="5"/>
+      <c r="E87" s="2"/>
       <c r="F87" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="G87" s="5"/>
-      <c r="H87" s="5"/>
-      <c r="I87" s="5"/>
-      <c r="J87" s="5" t="s">
+      <c r="G87" s="2"/>
+      <c r="H87" s="2"/>
+      <c r="I87" s="2"/>
+      <c r="J87" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="K87" s="5"/>
+      <c r="K87" s="2"/>
       <c r="L87" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="M87" s="5" t="s">
+      <c r="M87" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="N87" s="5"/>
-      <c r="O87" s="5" t="s">
+      <c r="N87" s="2"/>
+      <c r="O87" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="P87" s="5"/>
+      <c r="P87" s="2"/>
       <c r="Q87" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="R87" s="5"/>
-      <c r="S87" s="5"/>
-      <c r="T87" s="5"/>
-      <c r="U87" s="5" t="s">
+      <c r="R87" s="2"/>
+      <c r="S87" s="2"/>
+      <c r="T87" s="2"/>
+      <c r="U87" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="V87" s="5"/>
+      <c r="V87" s="2"/>
     </row>
     <row r="88" spans="1:22">
       <c r="A88" s="5" t="s">
